--- a/src/main/resource/resource/DropResource.xlsx
+++ b/src/main/resource/resource/DropResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F388756-9A16-49E7-B8FD-CD7E1BF731A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDC89DD-683E-4BF4-A554-9529905AE970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>DropResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,22 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000/10000 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>980000/10000 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000/10000 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000/10000 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,22 +175,15 @@
     <t>10000/10000 6</t>
   </si>
   <si>
-    <t>10000/10000 8</t>
-  </si>
-  <si>
-    <t>10000/10000 9</t>
-  </si>
-  <si>
-    <t>10000/10000 11</t>
-  </si>
-  <si>
-    <t>10000/10000 12</t>
-  </si>
-  <si>
     <t>10000/10000 13</t>
   </si>
   <si>
+    <t>20000/10000 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10000/10000 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,7 +511,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,37 +546,37 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -618,37 +599,37 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -721,37 +702,37 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -762,22 +743,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -788,24 +760,15 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1003</v>
@@ -813,23 +776,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/resource/DropResource.xlsx
+++ b/src/main/resource/resource/DropResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDC89DD-683E-4BF4-A554-9529905AE970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A902C-E173-4D9D-A858-04AC377B7F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>DropResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000/10000 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000/10000 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,7 +178,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>990000/10000 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000/10000 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000/10000 4</t>
+  </si>
+  <si>
+    <t>10000/10000 7</t>
+  </si>
+  <si>
+    <t>10000/10000 8</t>
+  </si>
+  <si>
+    <t>10000/10000 9</t>
+  </si>
+  <si>
+    <t>10000/10000 10</t>
+  </si>
+  <si>
+    <t>10000/10000 11</t>
+  </si>
+  <si>
+    <t>10000/10000 12</t>
+  </si>
+  <si>
     <t>10000/10000 14</t>
+  </si>
+  <si>
+    <t>990000/10000 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000/10000 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000/10000 2</t>
+  </si>
+  <si>
+    <t>10000/10000 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +550,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,37 +585,37 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -599,37 +638,37 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,37 +741,37 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -743,13 +782,46 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
       </c>
       <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -759,11 +831,47 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -776,11 +884,47 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
       <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/resource/DropResource.xlsx
+++ b/src/main/resource/resource/DropResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A902C-E173-4D9D-A858-04AC377B7F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E01A4-9DEA-48D7-B4E9-EFD050B67E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>DropResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>990000/10000 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30000/10000 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,18 +206,19 @@
     <t>10000/10000 14</t>
   </si>
   <si>
-    <t>990000/10000 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000/10000 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000/10000 2</t>
-  </si>
-  <si>
-    <t>10000/10000 3</t>
+    <t>90000/10000 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000/10000 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000/10000 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000/10000 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +547,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,43 +782,19 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -832,46 +805,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
       </c>
       <c r="P7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -890,41 +839,17 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>52</v>
-      </c>
-      <c r="P8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
